--- a/jpcore-r4/main/StructureDefinition-JP-Consent.xlsx
+++ b/jpcore-r4/main/StructureDefinition-JP-Consent.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-JP-Consent.xlsx
+++ b/jpcore-r4/main/StructureDefinition-JP-Consent.xlsx
@@ -430,7 +430,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+    <t>「リソースがどこから来たかを特定する」</t>
   </si>
   <si>
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
@@ -453,7 +453,7 @@
     <t>このリソースが適合を主張するプロファイル</t>
   </si>
   <si>
-    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
+    <t>このリソースが準拠すると主張する [StructureDefinition](structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
   </si>
   <si>
     <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>

--- a/jpcore-r4/main/StructureDefinition-JP-Consent.xlsx
+++ b/jpcore-r4/main/StructureDefinition-JP-Consent.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}ppc-1:ポリシーまたはPolicyruleのいずれか / Either a Policy or PolicyRule {policy.exists() or policyRule.exists()}ppc-2:scope =プライバシーの場合、患者がいる必要があります / IF Scope=privacy, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='patient-privacy').exists().not()}ppc-3:scope =研究の場合、患者がいる必要があります / IF Scope=research, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='research').exists().not()}ppc-4:scope = adrの場合、患者がいる必要があります / IF Scope=adr, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='adr').exists().not()}ppc-5:scope =治療の場合、患者がいる必要があります / IF Scope=treatment, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='treatment').exists().not()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}ppc-1:ポリシーまたはPolicyruleのいずれか / Either a Policy or PolicyRule {policy.exists() or policyRule.exists()}ppc-2:scope =プライバシーの場合、患者がいる必要があります / IF Scope=privacy, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='patient-privacy').exists().not()}ppc-3:scope =研究の場合、患者がいる必要があります / IF Scope=research, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='research').exists().not()}ppc-4:scope = adrの場合、患者がいる必要があります / IF Scope=adr, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='adr').exists().not()}ppc-5:scope =治療の場合、患者がいる必要があります / IF Scope=treatment, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='treatment').exists().not()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/main/StructureDefinition-JP-Consent.xlsx
+++ b/jpcore-r4/main/StructureDefinition-JP-Consent.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
